--- a/2020/January/All Details/21.01.2020/MC Bank Statement Jan'2020.xlsx
+++ b/2020/January/All Details/21.01.2020/MC Bank Statement Jan'2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\20.01.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\21.01.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAAC675-ED9C-416E-9562-FD7095E7A727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDCEF7D-23B0-4DC7-BC38-C700FDC34C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -193,7 +193,13 @@
     <t>20.01.2020</t>
   </si>
   <si>
-    <t>Date: 20.01.2020</t>
+    <t>21.01.2020</t>
+  </si>
+  <si>
+    <t>Date: 21.01.2020</t>
+  </si>
+  <si>
+    <t>N=Desh Telecom</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1137,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1550,6 +1556,9 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -2024,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2473,9 +2482,15 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="60"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
+      <c r="B26" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="64">
+        <v>350000</v>
+      </c>
+      <c r="D26" s="88">
+        <v>350000</v>
+      </c>
       <c r="E26" s="96">
         <f t="shared" si="0"/>
         <v>3000</v>
@@ -2486,14 +2501,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="60"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
+      <c r="B27" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="151">
+        <v>100000</v>
+      </c>
+      <c r="D27" s="151">
+        <v>100000</v>
+      </c>
       <c r="E27" s="96">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="F27" s="56"/>
+      <c r="F27" s="104" t="s">
+        <v>31</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="60"/>
     </row>
@@ -2545,9 +2568,7 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="F31" s="104" t="s">
-        <v>31</v>
-      </c>
+      <c r="F31" s="56"/>
       <c r="G31" s="2"/>
       <c r="H31" s="60"/>
     </row>
@@ -3156,11 +3177,11 @@
       <c r="B83" s="72"/>
       <c r="C83" s="67">
         <f>SUM(C5:C72)</f>
-        <v>5363000</v>
+        <v>5813000</v>
       </c>
       <c r="D83" s="67">
         <f>SUM(D5:D77)</f>
-        <v>5360000</v>
+        <v>5810000</v>
       </c>
       <c r="E83" s="73">
         <f>E71+C83-D83</f>
@@ -3193,7 +3214,7 @@
   <dimension ref="A1:AK222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -3229,7 +3250,7 @@
     </row>
     <row r="2" spans="1:37" ht="21.75" customHeight="1">
       <c r="A2" s="145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="146"/>
       <c r="C2" s="146"/>
@@ -3318,7 +3339,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="107">
-        <v>4917943.1100000003</v>
+        <v>4767817.1475000009</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="99"/>
@@ -3358,7 +3379,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="29">
-        <v>132124.54500000001</v>
+        <v>144414.505</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="125" t="s">
@@ -3406,7 +3427,7 @@
       </c>
       <c r="B6" s="29">
         <f>B4+B5</f>
-        <v>7132124.5449999999</v>
+        <v>7144414.5049999999</v>
       </c>
       <c r="C6" s="79"/>
       <c r="D6" s="103" t="s">
@@ -3460,7 +3481,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="40">
-        <v>1445809</v>
+        <v>1577874</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="99"/>
@@ -3500,7 +3521,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="29">
-        <v>18472</v>
+        <v>19837</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="125" t="s">
@@ -3552,7 +3573,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="107">
-        <v>296900.43499999959</v>
+        <v>325886.35749999899</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="99"/>
@@ -3591,7 +3612,7 @@
       </c>
       <c r="B10" s="48">
         <f>B5-B8-B9</f>
-        <v>113652.54500000001</v>
+        <v>124577.505</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="125"/>
@@ -3717,7 +3738,7 @@
       </c>
       <c r="B13" s="31">
         <f>B6-B8+B11-B12-B9</f>
-        <v>7013652.5449999999</v>
+        <v>7024577.5049999999</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26" t="s">
@@ -3725,7 +3746,7 @@
       </c>
       <c r="E13" s="41">
         <f>E4+E5+E6+E7+E8-E11+E9-E10</f>
-        <v>7013652.5449999999</v>
+        <v>7024577.5049999999</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="88">
@@ -3939,8 +3960,12 @@
       <c r="AK17" s="8"/>
     </row>
     <row r="18" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A18" s="114"/>
-      <c r="B18" s="86"/>
+      <c r="A18" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="86">
+        <v>20000</v>
+      </c>
       <c r="C18" s="32"/>
       <c r="D18" s="35" t="s">
         <v>23</v>
@@ -3982,10 +4007,10 @@
     </row>
     <row r="19" spans="1:37" ht="21.75" customHeight="1">
       <c r="A19" s="116" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="87">
-        <v>31000</v>
+        <v>20040</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="35" t="s">
@@ -4028,10 +4053,10 @@
     </row>
     <row r="20" spans="1:37" ht="21.75" customHeight="1" thickBot="1">
       <c r="A20" s="131" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B20" s="132">
-        <v>20040</v>
+        <v>26420</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="134" t="s">
